--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2865713.86857666</v>
+        <v>-2868635.113560912</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.88448735196301</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.79223673232705</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="S5" t="n">
-        <v>34.88448735196301</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="U5" t="n">
-        <v>34.88448735196301</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>10.05797398557053</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>23.85021071789816</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>34.88448735196301</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>30.72625645960902</v>
+        <v>30.7262564596096</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="X6" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.88448735196301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.42574572344715</v>
       </c>
       <c r="R7" t="n">
-        <v>34.88448735196301</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="U7" t="n">
-        <v>34.88448735196301</v>
+        <v>1.300510736162453</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.72625645960902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.2800671675041</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>34.31466295695061</v>
       </c>
       <c r="S8" t="n">
-        <v>92.66494928910237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V8" t="n">
-        <v>92.66494928910237</v>
+        <v>26.96540421055336</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>92.66494928910237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.04780860145886</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>92.66494928910237</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>81.61928733384126</v>
       </c>
       <c r="U9" t="n">
-        <v>42.57147873238252</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V9" t="n">
-        <v>92.66494928910237</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>92.66494928910237</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>92.66494928910237</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="U10" t="n">
-        <v>92.66494928910237</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>81.61928733384137</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>81.61928733384124</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.66494928910237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>197.4149500449652</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835305</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492377</v>
+        <v>126.0955237083907</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>374.4976191876822</v>
       </c>
       <c r="H14" t="n">
-        <v>238.8047027916316</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516568</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.97599399093663</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.41527379555131</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>73.6576746544297</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187929</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442964</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139452893</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645713</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943553</v>
@@ -2254,10 +2254,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443003</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645704</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2485,16 +2485,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442991</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139452979</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
         <v>186.4872700401421</v>
@@ -2539,7 +2539,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998809</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
         <v>114.8237602943553</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453025</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3013,7 +3013,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998809</v>
@@ -3038,7 +3038,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
         <v>378.5542040247498</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612664</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112649</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187937</v>
@@ -3275,10 +3275,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
         <v>255.241665994756</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U35" t="n">
         <v>219.324384064569</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659985</v>
@@ -3436,13 +3436,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453023</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221588</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424834</v>
@@ -3481,16 +3481,16 @@
         <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3512,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H38" t="n">
         <v>255.241665994756</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545726</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D40" t="n">
         <v>117.0052706659985</v>
@@ -3673,13 +3673,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H40" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221588</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424834</v>
@@ -3718,16 +3718,16 @@
         <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3797,16 +3797,16 @@
         <v>219.324384064569</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659985</v>
@@ -3907,16 +3907,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612657</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.66781199223632</v>
+        <v>44.97311564843498</v>
       </c>
       <c r="C5" t="n">
-        <v>23.66781199223632</v>
+        <v>44.97311564843498</v>
       </c>
       <c r="D5" t="n">
-        <v>23.66781199223632</v>
+        <v>44.97311564843498</v>
       </c>
       <c r="E5" t="n">
-        <v>23.66781199223632</v>
+        <v>44.97311564843498</v>
       </c>
       <c r="F5" t="n">
-        <v>16.72231124303285</v>
+        <v>38.02761489923151</v>
       </c>
       <c r="G5" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="H5" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="I5" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="J5" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928013908</v>
+        <v>5.366676928014495</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645729</v>
+        <v>39.90231940645853</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188490066</v>
+        <v>74.43796188490256</v>
       </c>
       <c r="O5" t="n">
-        <v>98.59809745907931</v>
+        <v>98.59809745908181</v>
       </c>
       <c r="P5" t="n">
-        <v>105.0023069294087</v>
+        <v>133.1337399375258</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078547</v>
       </c>
       <c r="R5" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967803</v>
       </c>
       <c r="S5" t="n">
-        <v>104.3010934967783</v>
+        <v>104.3010934967803</v>
       </c>
       <c r="T5" t="n">
-        <v>104.3010934967783</v>
+        <v>69.06423758570585</v>
       </c>
       <c r="U5" t="n">
-        <v>69.06423758570455</v>
+        <v>69.06423758570585</v>
       </c>
       <c r="V5" t="n">
-        <v>58.90466790331007</v>
+        <v>69.06423758570585</v>
       </c>
       <c r="W5" t="n">
-        <v>58.90466790331007</v>
+        <v>69.06423758570585</v>
       </c>
       <c r="X5" t="n">
-        <v>58.90466790331007</v>
+        <v>44.97311564843498</v>
       </c>
       <c r="Y5" t="n">
-        <v>58.90466790331007</v>
+        <v>44.97311564843498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="C6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="D6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="E6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="F6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="G6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="H6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="I6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="L6" t="n">
-        <v>15.78028780133971</v>
+        <v>15.78028780134002</v>
       </c>
       <c r="M6" t="n">
-        <v>50.31593027978309</v>
+        <v>50.31593027978406</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275822647</v>
+        <v>84.85157275822809</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366698</v>
+        <v>119.3872152366721</v>
       </c>
       <c r="P6" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078547</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078547</v>
       </c>
       <c r="R6" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967803</v>
       </c>
       <c r="S6" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967803</v>
       </c>
       <c r="T6" t="n">
-        <v>104.3010934967783</v>
+        <v>104.3010934967803</v>
       </c>
       <c r="U6" t="n">
-        <v>104.3010934967783</v>
+        <v>104.3010934967803</v>
       </c>
       <c r="V6" t="n">
-        <v>73.26447081030453</v>
+        <v>73.26447081030592</v>
       </c>
       <c r="W6" t="n">
-        <v>73.26447081030453</v>
+        <v>38.02761489923151</v>
       </c>
       <c r="X6" t="n">
-        <v>38.02761489923078</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="L7" t="n">
-        <v>2.790758988157041</v>
+        <v>37.32640146660113</v>
       </c>
       <c r="M7" t="n">
-        <v>35.9310219725219</v>
+        <v>70.46666445096662</v>
       </c>
       <c r="N7" t="n">
-        <v>70.46666445096528</v>
+        <v>105.0023069294107</v>
       </c>
       <c r="O7" t="n">
-        <v>105.0023069294087</v>
+        <v>105.0023069294107</v>
       </c>
       <c r="P7" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078547</v>
       </c>
       <c r="Q7" t="n">
-        <v>139.537949407852</v>
+        <v>109.8149739296252</v>
       </c>
       <c r="R7" t="n">
-        <v>104.3010934967783</v>
+        <v>109.8149739296252</v>
       </c>
       <c r="S7" t="n">
-        <v>69.06423758570455</v>
+        <v>74.57811801855082</v>
       </c>
       <c r="T7" t="n">
-        <v>69.06423758570455</v>
+        <v>39.34126210747641</v>
       </c>
       <c r="U7" t="n">
-        <v>33.8273816746308</v>
+        <v>38.02761489923151</v>
       </c>
       <c r="V7" t="n">
-        <v>33.8273816746308</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="W7" t="n">
-        <v>33.8273816746308</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="X7" t="n">
-        <v>33.8273816746308</v>
+        <v>2.790758988157094</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.790758988157041</v>
+        <v>2.790758988157094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.85692052276595</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="C8" t="n">
-        <v>89.85692052276595</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="D8" t="n">
-        <v>89.85692052276595</v>
+        <v>27.95786277781231</v>
       </c>
       <c r="E8" t="n">
-        <v>89.85692052276595</v>
+        <v>27.95786277781231</v>
       </c>
       <c r="F8" t="n">
-        <v>82.91141977356247</v>
+        <v>21.01236202860883</v>
       </c>
       <c r="G8" t="n">
-        <v>69.31225368808182</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H8" t="n">
-        <v>69.31225368808182</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I8" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J8" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821463</v>
+        <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940371</v>
+        <v>75.16870670940376</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056151</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N8" t="n">
-        <v>258.6453063018264</v>
+        <v>258.6453063018263</v>
       </c>
       <c r="O8" t="n">
-        <v>337.6943058037298</v>
+        <v>337.6943058037295</v>
       </c>
       <c r="P8" t="n">
-        <v>370.6597971564095</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6597971564095</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564095</v>
+        <v>335.9985214423176</v>
       </c>
       <c r="S8" t="n">
-        <v>277.0588382785283</v>
+        <v>335.9985214423176</v>
       </c>
       <c r="T8" t="n">
-        <v>277.0588382785283</v>
+        <v>335.9985214423176</v>
       </c>
       <c r="U8" t="n">
-        <v>277.0588382785283</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="V8" t="n">
-        <v>183.4578794006471</v>
+        <v>215.1597805335745</v>
       </c>
       <c r="W8" t="n">
-        <v>183.4578794006471</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="X8" t="n">
-        <v>183.4578794006471</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="Y8" t="n">
-        <v>89.85692052276595</v>
+        <v>121.5588216556934</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.41319594312819</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="C9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="D9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="E9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="F9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="G9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="K9" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="L9" t="n">
-        <v>43.08143125983024</v>
+        <v>81.81537555601331</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560416</v>
+        <v>134.8197310560415</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522529</v>
+        <v>226.5580308522527</v>
       </c>
       <c r="O9" t="n">
-        <v>317.224793251401</v>
+        <v>317.2247932514008</v>
       </c>
       <c r="P9" t="n">
-        <v>370.6597971564095</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="Q9" t="n">
-        <v>370.6597971564095</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="R9" t="n">
-        <v>331.217566245845</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="S9" t="n">
-        <v>237.6166073679638</v>
+        <v>277.058838278528</v>
       </c>
       <c r="T9" t="n">
-        <v>237.6166073679638</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="U9" t="n">
-        <v>194.6151136988906</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="V9" t="n">
-        <v>101.0141548210094</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="W9" t="n">
-        <v>101.0141548210094</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="X9" t="n">
-        <v>7.41319594312819</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.41319594312819</v>
+        <v>101.0141548210093</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="C10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="D10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="E10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="F10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="G10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="K10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="L10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="M10" t="n">
-        <v>95.44489776777549</v>
+        <v>99.15149573933944</v>
       </c>
       <c r="N10" t="n">
-        <v>187.1831975639868</v>
+        <v>187.1831975639866</v>
       </c>
       <c r="O10" t="n">
-        <v>278.9214973601981</v>
+        <v>278.9214973601979</v>
       </c>
       <c r="P10" t="n">
-        <v>370.6597971564095</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="Q10" t="n">
-        <v>370.6597971564095</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="R10" t="n">
-        <v>277.0588382785283</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="S10" t="n">
-        <v>277.0588382785283</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="T10" t="n">
-        <v>277.0588382785283</v>
+        <v>277.058838278528</v>
       </c>
       <c r="U10" t="n">
-        <v>183.4578794006471</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="V10" t="n">
-        <v>183.4578794006471</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="W10" t="n">
-        <v>101.0141548210094</v>
+        <v>89.8569205227658</v>
       </c>
       <c r="X10" t="n">
-        <v>101.0141548210094</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.41319594312819</v>
+        <v>7.413195943128183</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796274</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392158</v>
+        <v>722.3614154301667</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324653</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943749</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218345</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5242,7 +5242,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509058</v>
+        <v>1866.02666250906</v>
       </c>
       <c r="C14" t="n">
-        <v>1497.064145568647</v>
+        <v>1497.064145568648</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.798446961896</v>
+        <v>1138.798446961898</v>
       </c>
       <c r="E14" t="n">
-        <v>753.0101943636519</v>
+        <v>753.0101943636537</v>
       </c>
       <c r="F14" t="n">
-        <v>753.0101943636519</v>
+        <v>753.0101943636537</v>
       </c>
       <c r="G14" t="n">
-        <v>338.7027131747996</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810105</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632628</v>
+        <v>3953.53241463263</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423757</v>
+        <v>3700.063135423758</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080186</v>
+        <v>3369.000248080188</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810072</v>
+        <v>3016.231592810073</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548992</v>
+        <v>2642.765834548994</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.62650257318</v>
+        <v>2252.626502573182</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L15" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M15" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781583</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O15" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281989</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293269</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.1441411914584</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="C16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="D16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="E16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="F16" t="n">
-        <v>252.340106857179</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755868</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711514</v>
+        <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5467,19 +5467,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306093</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100206</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632456</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652283</v>
+        <v>737.5851851652287</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060216981</v>
+        <v>516.7926060216986</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448894</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551787</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>1428.524759781581</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>1934.929714729832</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502078</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477693</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609036</v>
+        <v>617.668592060902</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039774</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315374</v>
+        <v>386.7245456315355</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749432</v>
+        <v>251.2943450749412</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897919</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
@@ -5704,7 +5704,7 @@
         <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357082</v>
@@ -5713,10 +5713,10 @@
         <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796672</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5768,34 +5768,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283568</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177178</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694439</v>
       </c>
       <c r="M21" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551787</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781582</v>
+        <v>1428.524759781581</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>1934.929714729832</v>
       </c>
       <c r="P21" t="n">
         <v>2322.031270281988</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477725</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315392</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074945</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443619</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902794</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040894</v>
@@ -5929,13 +5929,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5944,16 +5944,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5972,7 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
         <v>725.1782574796675</v>
@@ -5981,16 +5981,16 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076848</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050964</v>
@@ -6005,31 +6005,31 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
         <v>2476.13298385146</v>
@@ -6060,19 +6060,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694437</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="M24" t="n">
         <v>850.66941185518</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039797</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F25" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L25" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
@@ -6175,10 +6175,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357083</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6206,28 +6206,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6242,10 +6242,10 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755812</v>
@@ -6257,7 +6257,7 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
         <v>3496.718237382061</v>
@@ -6269,7 +6269,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
         <v>84.98040897511625</v>
@@ -6309,10 +6309,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N27" t="n">
         <v>1428.524759781582</v>
@@ -6361,40 +6361,40 @@
         <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477721</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
@@ -6449,64 +6449,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N30" t="n">
         <v>1428.524759781582</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6640,31 +6640,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746739</v>
@@ -6719,31 +6719,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511625</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694437</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="M33" t="n">
         <v>850.66941185518</v>
@@ -6841,10 +6841,10 @@
         <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749443</v>
@@ -6853,22 +6853,22 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6877,19 +6877,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M36" t="n">
-        <v>850.66941185518</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N36" t="n">
         <v>1428.524759781582</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749445</v>
@@ -7090,52 +7090,52 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042801</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443629</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902804</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W37" t="n">
         <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254982</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
         <v>766.683188695145</v>
@@ -7181,7 +7181,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
@@ -7193,16 +7193,16 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
         <v>3795.851627400163</v>
@@ -7245,19 +7245,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M39" t="n">
         <v>850.66941185518</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902804</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W40" t="n">
         <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254982</v>
@@ -7394,13 +7394,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511625</v>
@@ -7409,25 +7409,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767229</v>
@@ -7439,22 +7439,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448909</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448909</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M42" t="n">
         <v>850.66941185518</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477724</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897932</v>
@@ -7567,40 +7567,40 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042807</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443634</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902808</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7612,7 +7612,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7628,43 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I44" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K44" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
         <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767229</v>
@@ -7688,10 +7688,10 @@
         <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7728,7 +7728,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511625</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="L45" t="n">
         <v>301.7509472448909</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
@@ -7804,19 +7804,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042791</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443619</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902794</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313936</v>
@@ -7831,7 +7831,7 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
         <v>2144.901839127669</v>
@@ -7840,10 +7840,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8140,10 +8140,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
         <v>37.63776203285606</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183551</v>
+        <v>52.84403871183522</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386702</v>
+        <v>27.94848709386659</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>20.48999351637831</v>
+        <v>48.90558241346336</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.07308581695474</v>
+        <v>65.657496919869</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804672</v>
+        <v>50.48147365804655</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653512193</v>
+        <v>7.336611653511909</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.81713562156419</v>
+        <v>36.81713562156395</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141718</v>
+        <v>50.29326225141699</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385077978</v>
+        <v>69.03467120274323</v>
       </c>
       <c r="M7" t="n">
-        <v>66.19039881325382</v>
+        <v>66.19039881325421</v>
       </c>
       <c r="N7" t="n">
-        <v>58.88507944579417</v>
+        <v>58.8850794457946</v>
       </c>
       <c r="O7" t="n">
-        <v>77.57119039297243</v>
+        <v>42.6867030410092</v>
       </c>
       <c r="P7" t="n">
-        <v>90.66485245682671</v>
+        <v>90.66485245682719</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358028</v>
+        <v>24.91528667358034</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422315</v>
+        <v>23.65357118422321</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516767</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.34273879062263</v>
+        <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092822</v>
+        <v>33.14412614092826</v>
       </c>
       <c r="L10" t="n">
-        <v>12.20519387026833</v>
+        <v>12.20519387026837</v>
       </c>
       <c r="M10" t="n">
-        <v>98.49838161191177</v>
+        <v>102.2424199670269</v>
       </c>
       <c r="N10" t="n">
-        <v>94.0777942665125</v>
+        <v>90.33375591139722</v>
       </c>
       <c r="O10" t="n">
         <v>114.4882119352853</v>
       </c>
       <c r="P10" t="n">
-        <v>130.5930368654884</v>
+        <v>130.5930368654883</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-1.122657522500958e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>13.99090544362082</v>
       </c>
       <c r="H2" t="n">
-        <v>226.8776161327062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>211.82955707492</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>167.8579417260424</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839087</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,10 +23273,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>53.73645647354655</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>35.66678718928154</v>
       </c>
       <c r="H14" t="n">
-        <v>48.0471655553383</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.2708271076912</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>65.00577422737993</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.495870259939693e-12</v>
       </c>
       <c r="I19" t="n">
-        <v>1.215028078149771e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1206908.613628494</v>
+        <v>1206908.613628493</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1355219.335645064</v>
+        <v>1355219.335645065</v>
       </c>
     </row>
     <row r="7">
@@ -26366,22 +26366,22 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.0515626386</v>
+        <v>56271.05156263959</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.4697294542</v>
+        <v>88049.46972945309</v>
       </c>
       <c r="E3" t="n">
         <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963077</v>
+        <v>215052.1096963083</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177114</v>
+        <v>25288.16188177103</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799912</v>
+        <v>8978.150740800185</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390373</v>
+        <v>39911.87677390343</v>
       </c>
       <c r="M3" t="n">
         <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578626</v>
+        <v>56542.29359578642</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>329746.2345099981</v>
       </c>
       <c r="C4" t="n">
-        <v>339958.0729421566</v>
+        <v>339958.0729421562</v>
       </c>
       <c r="D4" t="n">
         <v>312030.0719413564</v>
@@ -26430,34 +26430,34 @@
         <v>14159.48578887614</v>
       </c>
       <c r="G4" t="n">
-        <v>45229.37087109617</v>
+        <v>45229.37087109603</v>
       </c>
       <c r="H4" t="n">
-        <v>45229.37087109617</v>
+        <v>45229.37087109615</v>
       </c>
       <c r="I4" t="n">
-        <v>45229.37087109614</v>
+        <v>45229.37087109609</v>
       </c>
       <c r="J4" t="n">
+        <v>45229.37087109611</v>
+      </c>
+      <c r="K4" t="n">
         <v>45229.37087109616</v>
       </c>
-      <c r="K4" t="n">
-        <v>45229.37087109614</v>
-      </c>
       <c r="L4" t="n">
+        <v>45229.37087109619</v>
+      </c>
+      <c r="M4" t="n">
+        <v>45229.37087109619</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45229.37087109612</v>
+      </c>
+      <c r="O4" t="n">
+        <v>45229.37087109619</v>
+      </c>
+      <c r="P4" t="n">
         <v>45229.37087109618</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45229.37087109616</v>
-      </c>
-      <c r="N4" t="n">
-        <v>45229.37087109624</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45229.37087109614</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45229.37087109617</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26470,40 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097145</v>
+        <v>43939.6449509715</v>
       </c>
       <c r="D5" t="n">
-        <v>49237.11966583624</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215533</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="L5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.4341021553</v>
-      </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.4341021553</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684932.0583104019</v>
+        <v>-685051.9414045807</v>
       </c>
       <c r="C6" t="n">
-        <v>-440168.7694557667</v>
+        <v>-440168.7694557674</v>
       </c>
       <c r="D6" t="n">
-        <v>-449316.6613366468</v>
+        <v>-449316.6613366457</v>
       </c>
       <c r="E6" t="n">
-        <v>-816816.4522585059</v>
+        <v>-817164.0711883119</v>
       </c>
       <c r="F6" t="n">
-        <v>-321660.5914857909</v>
+        <v>-321796.3379555739</v>
       </c>
       <c r="G6" t="n">
-        <v>-165623.9668550226</v>
+        <v>-165623.9668550224</v>
       </c>
       <c r="H6" t="n">
-        <v>-140335.8049732514</v>
+        <v>-140335.8049732516</v>
       </c>
       <c r="I6" t="n">
         <v>-140335.8049732514</v>
@@ -26546,10 +26546,10 @@
         <v>-140335.8049732514</v>
       </c>
       <c r="K6" t="n">
-        <v>-149313.9557140513</v>
+        <v>-149313.9557140516</v>
       </c>
       <c r="L6" t="n">
-        <v>-180247.6817471552</v>
+        <v>-180247.6817471549</v>
       </c>
       <c r="M6" t="n">
         <v>-324431.897242683</v>
@@ -26558,7 +26558,7 @@
         <v>-196878.0985690378</v>
       </c>
       <c r="O6" t="n">
-        <v>-140335.8049732514</v>
+        <v>-140335.8049732516</v>
       </c>
       <c r="P6" t="n">
         <v>-140335.8049732515</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J2" t="n">
         <v>31.61020235221391</v>
       </c>
       <c r="K2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234908</v>
+        <v>375.7370697234916</v>
       </c>
       <c r="D3" t="n">
-        <v>457.5913187641657</v>
+        <v>457.5913187641656</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="D4" t="n">
-        <v>92.66494928910237</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432651</v>
+        <v>49.41884193432736</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067497</v>
+        <v>81.85424904067395</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291326</v>
+        <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268245</v>
+        <v>188.3831700268249</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193713936</v>
+        <v>57.7804619371386</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131907</v>
+        <v>738.7365061131906</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866604</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196261</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713936</v>
+        <v>57.7804619371387</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131907</v>
+        <v>738.7365061131906</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866599</v>
+        <v>230.8536567866606</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713936</v>
+        <v>57.7804619371386</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131907</v>
+        <v>738.7365061131906</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866604</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>99.16238578066589</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
         <v>159.9014836333536</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S2" t="n">
         <v>179.1266962566148</v>
@@ -27433,7 +27433,7 @@
         <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407063421153</v>
+        <v>39.41114926719538</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S3" t="n">
         <v>158.6458343615066</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.8493543115176</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>378.9077493803634</v>
       </c>
       <c r="H5" t="n">
         <v>324.0053859738347</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412004</v>
+        <v>152.2423081412002</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.98512314308644</v>
+        <v>20.10063579112256</v>
       </c>
       <c r="S5" t="n">
-        <v>139.715045646045</v>
+        <v>174.5995329980079</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4836323873893</v>
+        <v>181.5991450354256</v>
       </c>
       <c r="U5" t="n">
-        <v>216.3403254932489</v>
+        <v>251.2248128452119</v>
       </c>
       <c r="V5" t="n">
-        <v>317.6942844845644</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>345.8808899605709</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27713,7 +27713,7 @@
         <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>61.57082155585467</v>
+        <v>61.57082155585461</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.97921189787203</v>
+        <v>15.09472454590824</v>
       </c>
       <c r="S6" t="n">
-        <v>156.6714117615833</v>
+        <v>156.6714117615832</v>
       </c>
       <c r="T6" t="n">
-        <v>162.0226718421427</v>
+        <v>196.9071591941057</v>
       </c>
       <c r="U6" t="n">
         <v>225.8882117409196</v>
       </c>
       <c r="V6" t="n">
-        <v>202.0743306898162</v>
+        <v>202.0743306898157</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>216.8104958089559</v>
       </c>
       <c r="X6" t="n">
-        <v>170.8884978515145</v>
+        <v>170.8884978515138</v>
       </c>
       <c r="Y6" t="n">
-        <v>170.7982084253414</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248762</v>
+        <v>135.0744384248761</v>
       </c>
       <c r="J7" t="n">
-        <v>45.45578353897462</v>
+        <v>45.45578353897452</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.42574572344728</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>111.9434032571346</v>
+        <v>146.8278906090975</v>
       </c>
       <c r="S7" t="n">
-        <v>177.3241112971415</v>
+        <v>177.3241112971408</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0505661041825</v>
+        <v>190.1660787522188</v>
       </c>
       <c r="U7" t="n">
-        <v>251.3975842599649</v>
+        <v>284.9815608757655</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>217.2531559718643</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8583968924858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315806</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>78.27606635604552</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.31466295695057</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.43607637216437</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
         <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V8" t="n">
-        <v>235.0873091810325</v>
+        <v>300.7868542595816</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283107</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>293.5729893669512</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921346</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,7 +27950,7 @@
         <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>55.50897386746506</v>
+        <v>55.50897386746507</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.04780860145888</v>
       </c>
       <c r="S9" t="n">
-        <v>60.73615356033696</v>
+        <v>60.73615356033704</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U9" t="n">
-        <v>183.3051498600879</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V9" t="n">
-        <v>140.1356378603229</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>113.1080359143751</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,7 +28032,7 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J10" t="n">
-        <v>35.02003772275611</v>
+        <v>35.02003772275614</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.06575411830536</v>
+        <v>17.06575411830538</v>
       </c>
       <c r="R10" t="n">
-        <v>47.52603778302512</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S10" t="n">
         <v>209.6362282325312</v>
       </c>
       <c r="T10" t="n">
-        <v>224.4198858246887</v>
+        <v>131.7549365355865</v>
       </c>
       <c r="U10" t="n">
-        <v>193.609071085215</v>
+        <v>193.6090710852151</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>204.9037110027496</v>
+        <v>193.8580490474887</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>144.0903680551959</v>
       </c>
       <c r="Y10" t="n">
-        <v>125.9197040629924</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221378</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221454</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221241</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="N28" t="n">
         <v>31.61020235221391</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221565</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221558</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221645</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221559</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221685</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221383</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221615</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221454</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J2" t="n">
         <v>111.3401072796808</v>
@@ -31072,7 +31072,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S2" t="n">
         <v>29.89337332963048</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H3" t="n">
         <v>6.778799411242828</v>
@@ -31151,7 +31151,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S3" t="n">
         <v>13.03733674233122</v>
@@ -31200,7 +31200,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I4" t="n">
         <v>17.69607700863206</v>
@@ -31212,10 +31212,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M4" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N4" t="n">
         <v>90.04778243237713</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782808002</v>
+        <v>1.510500782808005</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193245</v>
+        <v>15.46941614193249</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920555</v>
+        <v>58.23358142920569</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148508</v>
+        <v>128.2018658148511</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511135</v>
+        <v>192.141363951114</v>
       </c>
       <c r="L5" t="n">
-        <v>238.368352282974</v>
+        <v>238.3683522829745</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792358</v>
+        <v>265.2307205792364</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485539</v>
+        <v>264.2975509485546</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693419</v>
+        <v>254.5023887693425</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937694</v>
+        <v>217.2119006937698</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094577</v>
+        <v>163.1170914094581</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806324</v>
+        <v>94.88399479806345</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823738</v>
+        <v>34.42053658823746</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176742032</v>
+        <v>6.612217176742047</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246401</v>
+        <v>0.1208400626246404</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688392066</v>
+        <v>0.8081891688392084</v>
       </c>
       <c r="H6" t="n">
-        <v>7.80540592010497</v>
+        <v>7.805405920104988</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556041</v>
+        <v>27.82581129556047</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861997</v>
+        <v>76.35615300862014</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208468</v>
+        <v>130.5048273208471</v>
       </c>
       <c r="L6" t="n">
-        <v>151.6751159548062</v>
+        <v>151.6751159548064</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739813</v>
+        <v>177.018521273982</v>
       </c>
       <c r="N6" t="n">
-        <v>166.2261994352963</v>
+        <v>166.226199435297</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964074</v>
+        <v>177.4807317964081</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549183</v>
+        <v>154.3286843549187</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644573</v>
+        <v>103.1646384644576</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477111</v>
+        <v>50.17862225477122</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225455</v>
+        <v>15.01175934225459</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715924</v>
+        <v>3.257569500715931</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521099</v>
+        <v>0.0531703400552111</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210489</v>
+        <v>0.6775586503210504</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763511</v>
+        <v>6.024112363763526</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238209</v>
+        <v>20.37603650238214</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769815</v>
+        <v>47.90339657769826</v>
       </c>
       <c r="K7" t="n">
-        <v>78.7199959191182</v>
+        <v>78.71999591911839</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304585</v>
+        <v>100.7344924304587</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498713</v>
+        <v>106.2103982498715</v>
       </c>
       <c r="N7" t="n">
-        <v>103.684952371402</v>
+        <v>103.6849523714023</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083338</v>
+        <v>95.76983541083359</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428391</v>
+        <v>81.94763894428409</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824711</v>
+        <v>56.73629752824723</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807188</v>
+        <v>30.46550076807195</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786773</v>
+        <v>11.80799938786776</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099026</v>
+        <v>2.895023324099033</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296635</v>
+        <v>0.03695774456296643</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.839563090509208</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H8" t="n">
-        <v>18.83942550067743</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I8" t="n">
-        <v>70.91975604685629</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J8" t="n">
-        <v>156.130617853106</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K8" t="n">
-        <v>233.9993234743608</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L8" t="n">
-        <v>290.296852405532</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M8" t="n">
-        <v>323.0111825163751</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N8" t="n">
-        <v>322.0780128856933</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O8" t="n">
-        <v>309.9456856660335</v>
+        <v>309.9456856660334</v>
       </c>
       <c r="P8" t="n">
-        <v>264.5314718690874</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q8" t="n">
         <v>198.6521186902263</v>
@@ -31549,13 +31549,13 @@
         <v>115.5544549841991</v>
       </c>
       <c r="S8" t="n">
-        <v>41.91904392497861</v>
+        <v>41.9190439249786</v>
       </c>
       <c r="T8" t="n">
-        <v>8.052687428704061</v>
+        <v>8.052687428704058</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1471650472407366</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9842530252663189</v>
+        <v>0.9842530252663184</v>
       </c>
       <c r="H9" t="n">
-        <v>9.505812112440502</v>
+        <v>9.505812112440498</v>
       </c>
       <c r="I9" t="n">
-        <v>33.88765898395002</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J9" t="n">
-        <v>92.99032639149902</v>
+        <v>92.99032639149898</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>174.5829003017955</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111207</v>
+        <v>195.6737869523498</v>
       </c>
       <c r="N9" t="n">
-        <v>224.0066613724357</v>
+        <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264123</v>
+        <v>234.1788327264122</v>
       </c>
       <c r="P9" t="n">
-        <v>187.9491588335307</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6390352953989</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R9" t="n">
-        <v>61.11002555118427</v>
+        <v>61.11002555118425</v>
       </c>
       <c r="S9" t="n">
-        <v>18.2820682543985</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T9" t="n">
-        <v>3.967230395700643</v>
+        <v>3.967230395700642</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0647534885043631</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8251646731812824</v>
+        <v>0.8251646731812821</v>
       </c>
       <c r="H10" t="n">
-        <v>7.336464094284498</v>
+        <v>7.336464094284495</v>
       </c>
       <c r="I10" t="n">
         <v>24.81495217166984</v>
       </c>
       <c r="J10" t="n">
-        <v>58.33914239391666</v>
+        <v>58.33914239391664</v>
       </c>
       <c r="K10" t="n">
-        <v>95.86913202960716</v>
+        <v>95.86913202960712</v>
       </c>
       <c r="L10" t="n">
-        <v>122.67948241097</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M10" t="n">
-        <v>129.3483132696805</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N10" t="n">
-        <v>126.2726994878231</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O10" t="n">
         <v>116.6332758056598</v>
       </c>
       <c r="P10" t="n">
-        <v>99.79991647276161</v>
+        <v>99.79991647276157</v>
       </c>
       <c r="Q10" t="n">
-        <v>69.09628913338902</v>
+        <v>69.09628913338901</v>
       </c>
       <c r="R10" t="n">
-        <v>37.10240430504201</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S10" t="n">
         <v>14.38036980444107</v>
       </c>
       <c r="T10" t="n">
-        <v>3.525703603592751</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04500898217352454</v>
+        <v>0.04500898217352453</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I14" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>357.5145194463138</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R15" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,40 +32151,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463138</v>
+        <v>357.5145194463117</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877215</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,31 +32555,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>457.1748150187202</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877215</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T21" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U21" t="n">
         <v>0.1808716798047345</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,19 +32634,19 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636386</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>357.5145194463132</v>
       </c>
       <c r="M24" t="n">
-        <v>457.1748150187216</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
         <v>715.033982716063</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,22 +33029,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
         <v>170.6946332877214</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,22 +33266,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R30" t="n">
         <v>170.6946332877214</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>356.801578640798</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>457.1748150187216</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>475.6116682468177</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578284</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>457.1748150187216</v>
       </c>
       <c r="N39" t="n">
         <v>715.033982716063</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>356.801578640798</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>696.597129487967</v>
+        <v>151.0727449683534</v>
       </c>
       <c r="N42" t="n">
         <v>715.033982716063</v>
@@ -34375,7 +34375,7 @@
         <v>810.8671910869753</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654306</v>
       </c>
       <c r="N44" t="n">
         <v>916.8452708117592</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>356.801578640798</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463132</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>696.597129487967</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312986735</v>
+        <v>2.601937312987275</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765521</v>
+        <v>24.4041773476558</v>
       </c>
       <c r="P5" t="n">
-        <v>6.46889845487813</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.88448735196301</v>
+        <v>6.468898454877627</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.12073617493199</v>
+        <v>13.12073617493225</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058808</v>
+        <v>20.35427694058845</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="M7" t="n">
-        <v>33.47501311552007</v>
+        <v>33.4750131155207</v>
       </c>
       <c r="N7" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="O7" t="n">
-        <v>34.88448735196301</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>34.88448735196301</v>
+        <v>34.88448735196367</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.90947242938026</v>
+        <v>13.90947242938017</v>
       </c>
       <c r="L8" t="n">
-        <v>54.5304374355448</v>
+        <v>54.53043743554468</v>
       </c>
       <c r="M8" t="n">
-        <v>92.6649492891024</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N8" t="n">
-        <v>92.66494928910237</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="O8" t="n">
-        <v>79.84747424434678</v>
+        <v>79.84747424434667</v>
       </c>
       <c r="P8" t="n">
-        <v>33.29847611381786</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>36.02852052192127</v>
+        <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
-        <v>92.66494928910237</v>
+        <v>53.53975303033147</v>
       </c>
       <c r="N9" t="n">
-        <v>92.66494928910237</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="O9" t="n">
-        <v>91.58258828196782</v>
+        <v>91.58258828196773</v>
       </c>
       <c r="P9" t="n">
-        <v>53.97475141920043</v>
+        <v>53.97475141920035</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>88.92091093398717</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N10" t="n">
-        <v>92.66494928910237</v>
+        <v>88.92091093398703</v>
       </c>
       <c r="O10" t="n">
-        <v>92.66494928910237</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="P10" t="n">
-        <v>92.66494928910237</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>218.9601396664396</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.884051537296</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488768</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386574</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9601396664396</v>
+        <v>218.9601396664375</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831113</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375752</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36057,10 +36057,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>315.0407810967019</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831113</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375752</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414984</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>218.960139666439</v>
       </c>
       <c r="M24" t="n">
-        <v>315.0407810967033</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327297</v>
@@ -36525,7 +36525,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440229</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895102</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q30" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>218.960139666439</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.0407810967033</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>344.2699561634844</v>
       </c>
       <c r="O36" t="n">
         <v>511.520156513384</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193575</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
@@ -37479,10 +37479,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553084</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>507.6654448276931</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227535</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>315.0407810967033</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327297</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817365</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37713,13 +37713,13 @@
         <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908742</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>687.4322072151683</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348821</v>
       </c>
       <c r="P41" t="n">
         <v>507.6654448276931</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>218.960139666439</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659486</v>
+        <v>8.938711046335131</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327297</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.205929019358</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151683</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>218.960139666439</v>
       </c>
       <c r="L45" t="n">
-        <v>218.960139666439</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193564</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38187,7 +38187,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
